--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_16_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_16_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -775,7 +775,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1223,7 +1223,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1501,7 +1501,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1669,7 +1669,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -2771,7 +2771,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -2979,7 +2979,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>APL</t>
         </is>
       </c>
     </row>
